--- a/data/pca/factorExposure/factorExposure_2010-05-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-12.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01555125812780188</v>
+        <v>-0.01714755436614424</v>
       </c>
       <c r="C2">
-        <v>-0.001029575711992188</v>
+        <v>0.001084795192094113</v>
       </c>
       <c r="D2">
-        <v>-0.01722703276651805</v>
+        <v>-0.009284382103700127</v>
       </c>
       <c r="E2">
-        <v>-0.01999194554979366</v>
+        <v>-0.000574408151424017</v>
       </c>
       <c r="F2">
-        <v>0.01232499821500662</v>
+        <v>-0.01084755120905755</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1208406757521216</v>
+        <v>-0.09413133489817731</v>
       </c>
       <c r="C4">
-        <v>0.0872082999634038</v>
+        <v>0.01732589656837561</v>
       </c>
       <c r="D4">
-        <v>0.01685195118614755</v>
+        <v>-0.08300893625337423</v>
       </c>
       <c r="E4">
-        <v>-0.01349382038912926</v>
+        <v>0.0296470552217189</v>
       </c>
       <c r="F4">
-        <v>0.0337363086756782</v>
+        <v>0.03354052038141959</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1317109067441536</v>
+        <v>-0.152807628137459</v>
       </c>
       <c r="C6">
-        <v>0.06111274650471372</v>
+        <v>0.02476890926922874</v>
       </c>
       <c r="D6">
-        <v>-0.00130894297108571</v>
+        <v>0.02277104934706593</v>
       </c>
       <c r="E6">
-        <v>0.03611169015613651</v>
+        <v>0.009358611355361108</v>
       </c>
       <c r="F6">
-        <v>-0.007153954720252887</v>
+        <v>0.04041367580237001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07527934382965708</v>
+        <v>-0.06111498010282699</v>
       </c>
       <c r="C7">
-        <v>0.072417958634753</v>
+        <v>-9.607359156086915e-05</v>
       </c>
       <c r="D7">
-        <v>-0.007492993630397275</v>
+        <v>-0.05146261035806046</v>
       </c>
       <c r="E7">
-        <v>-0.02443770476064096</v>
+        <v>0.01597080590018979</v>
       </c>
       <c r="F7">
-        <v>0.01070464246698149</v>
+        <v>0.05401119739983797</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04650094894969947</v>
+        <v>-0.05895315066360683</v>
       </c>
       <c r="C8">
-        <v>0.03270017955440371</v>
+        <v>-0.01281879180647083</v>
       </c>
       <c r="D8">
-        <v>-0.004207648717356335</v>
+        <v>-0.03015252519464039</v>
       </c>
       <c r="E8">
-        <v>0.02791442928139699</v>
+        <v>0.01401505978693157</v>
       </c>
       <c r="F8">
-        <v>0.009557633651081017</v>
+        <v>-0.02871981187557302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08624264024412041</v>
+        <v>-0.07183999551256717</v>
       </c>
       <c r="C9">
-        <v>0.06862979054288638</v>
+        <v>0.01359577610960888</v>
       </c>
       <c r="D9">
-        <v>0.02505348244172101</v>
+        <v>-0.08271724637852104</v>
       </c>
       <c r="E9">
-        <v>-0.009454342493454867</v>
+        <v>0.02526008697905113</v>
       </c>
       <c r="F9">
-        <v>0.01430212085993121</v>
+        <v>0.05582869909513008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1317204270334402</v>
+        <v>-0.09374331751961491</v>
       </c>
       <c r="C10">
-        <v>-0.1552749511910789</v>
+        <v>0.01595803154276194</v>
       </c>
       <c r="D10">
-        <v>-0.02209009090697983</v>
+        <v>0.1706802766386585</v>
       </c>
       <c r="E10">
-        <v>-0.03755091533567873</v>
+        <v>-0.03630382926123636</v>
       </c>
       <c r="F10">
-        <v>0.02418249232711854</v>
+        <v>-0.05178486857329501</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07523195271691792</v>
+        <v>-0.08817703334358021</v>
       </c>
       <c r="C11">
-        <v>0.06829518371191227</v>
+        <v>0.01288364858026204</v>
       </c>
       <c r="D11">
-        <v>0.03209322781949719</v>
+        <v>-0.1132635504547114</v>
       </c>
       <c r="E11">
-        <v>0.009240659284672371</v>
+        <v>0.04679379789034279</v>
       </c>
       <c r="F11">
-        <v>0.0180331848400588</v>
+        <v>0.02333023563349867</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06848744396971658</v>
+        <v>-0.09354643451381817</v>
       </c>
       <c r="C12">
-        <v>0.07119490140375989</v>
+        <v>0.01085583026374774</v>
       </c>
       <c r="D12">
-        <v>0.04930940806069831</v>
+        <v>-0.1198385845203625</v>
       </c>
       <c r="E12">
-        <v>-0.0164490325412633</v>
+        <v>0.04609595972726804</v>
       </c>
       <c r="F12">
-        <v>-0.01545584674250663</v>
+        <v>0.02393999418881227</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0364029199723743</v>
+        <v>-0.04385407624504304</v>
       </c>
       <c r="C13">
-        <v>0.04045587151188543</v>
+        <v>0.004554692430511573</v>
       </c>
       <c r="D13">
-        <v>-0.01544311368587316</v>
+        <v>-0.04654101305633285</v>
       </c>
       <c r="E13">
-        <v>-0.02333180148339288</v>
+        <v>-0.01210264800886588</v>
       </c>
       <c r="F13">
-        <v>0.01129239105477446</v>
+        <v>0.01523959420580398</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03124669997259034</v>
+        <v>-0.02195721599942408</v>
       </c>
       <c r="C14">
-        <v>0.0275221075675388</v>
+        <v>0.01479525890355439</v>
       </c>
       <c r="D14">
-        <v>0.02311213540480865</v>
+        <v>-0.03236528620020789</v>
       </c>
       <c r="E14">
-        <v>0.002150636914028855</v>
+        <v>0.01895299863731933</v>
       </c>
       <c r="F14">
-        <v>-0.003972708530152939</v>
+        <v>0.0201944968567466</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01873703433217774</v>
+        <v>-0.03224333364784265</v>
       </c>
       <c r="C15">
-        <v>0.02501973807611554</v>
+        <v>0.005697244841700495</v>
       </c>
       <c r="D15">
-        <v>-0.06233750748029759</v>
+        <v>-0.04499142596542076</v>
       </c>
       <c r="E15">
-        <v>-0.01060087931874636</v>
+        <v>0.009170472351740741</v>
       </c>
       <c r="F15">
-        <v>0.02069809687714837</v>
+        <v>0.03130859325670913</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08084919700516566</v>
+        <v>-0.07496499216671593</v>
       </c>
       <c r="C16">
-        <v>0.07067824590050374</v>
+        <v>0.004475734821575577</v>
       </c>
       <c r="D16">
-        <v>0.04063536923131619</v>
+        <v>-0.1153932427159751</v>
       </c>
       <c r="E16">
-        <v>0.02381573683583523</v>
+        <v>0.06175485256414846</v>
       </c>
       <c r="F16">
-        <v>0.004655998455146633</v>
+        <v>0.03240217507006668</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02155119085737023</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003586002205519739</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02063020927528335</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01112201321472046</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02378546216178334</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04270348844346188</v>
+        <v>-0.06131604917106686</v>
       </c>
       <c r="C20">
-        <v>0.03284376380785086</v>
+        <v>0.002160566788089046</v>
       </c>
       <c r="D20">
-        <v>-0.02602976288434722</v>
+        <v>-0.0723204414581728</v>
       </c>
       <c r="E20">
-        <v>-0.01979678468635986</v>
+        <v>0.05412269922813458</v>
       </c>
       <c r="F20">
-        <v>-0.0122428850752805</v>
+        <v>0.02823426531886443</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02575779715403927</v>
+        <v>-0.03939144600381954</v>
       </c>
       <c r="C21">
-        <v>0.02037012454441829</v>
+        <v>0.007802539005421673</v>
       </c>
       <c r="D21">
-        <v>0.01508375997898843</v>
+        <v>-0.03595238307121368</v>
       </c>
       <c r="E21">
-        <v>-0.0008886440646791867</v>
+        <v>-0.008111256468747663</v>
       </c>
       <c r="F21">
-        <v>0.01174779203591622</v>
+        <v>-0.02046304111298922</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.06014608630731182</v>
+        <v>-0.04256784044715647</v>
       </c>
       <c r="C22">
-        <v>0.02215141819208163</v>
+        <v>0.0002551470305161633</v>
       </c>
       <c r="D22">
-        <v>-0.6407221927029991</v>
+        <v>-0.001459606650728586</v>
       </c>
       <c r="E22">
-        <v>-0.0913784575173458</v>
+        <v>0.02911746603857142</v>
       </c>
       <c r="F22">
-        <v>-0.1509800168736383</v>
+        <v>-0.01174704736790138</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.06087494220040975</v>
+        <v>-0.04263331623703902</v>
       </c>
       <c r="C23">
-        <v>0.02398388840302585</v>
+        <v>0.0002814755181690095</v>
       </c>
       <c r="D23">
-        <v>-0.6431457533727351</v>
+        <v>-0.001647855908216896</v>
       </c>
       <c r="E23">
-        <v>-0.09098181865667065</v>
+        <v>0.02950173429059429</v>
       </c>
       <c r="F23">
-        <v>-0.1506175211952976</v>
+        <v>-0.01121512941259715</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08200250378706156</v>
+        <v>-0.08114126073409773</v>
       </c>
       <c r="C24">
-        <v>0.06990265568288882</v>
+        <v>0.004762813949686494</v>
       </c>
       <c r="D24">
-        <v>0.0362414986784779</v>
+        <v>-0.1163022755227382</v>
       </c>
       <c r="E24">
-        <v>0.005155166191951513</v>
+        <v>0.04936222672510228</v>
       </c>
       <c r="F24">
-        <v>0.001709508283710073</v>
+        <v>0.0251290015190498</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08105818003755359</v>
+        <v>-0.08562178197425399</v>
       </c>
       <c r="C25">
-        <v>0.06515440884445479</v>
+        <v>0.006681725106990933</v>
       </c>
       <c r="D25">
-        <v>0.04974841289660167</v>
+        <v>-0.1044410180190335</v>
       </c>
       <c r="E25">
-        <v>-0.006345315210883733</v>
+        <v>0.03246255274188663</v>
       </c>
       <c r="F25">
-        <v>0.002512291600323983</v>
+        <v>0.03284794469657818</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03800876401524119</v>
+        <v>-0.05570148204003835</v>
       </c>
       <c r="C26">
-        <v>-0.008521008628801478</v>
+        <v>0.01563678566271946</v>
       </c>
       <c r="D26">
-        <v>-0.01614445728353884</v>
+        <v>-0.03344847134045145</v>
       </c>
       <c r="E26">
-        <v>0.02639158060980792</v>
+        <v>0.02579404953389924</v>
       </c>
       <c r="F26">
-        <v>-0.05958245302425054</v>
+        <v>-0.007347845270159853</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1507434132458185</v>
+        <v>-0.1400013587337931</v>
       </c>
       <c r="C28">
-        <v>-0.2765098022649682</v>
+        <v>0.01372356268054546</v>
       </c>
       <c r="D28">
-        <v>0.001147372185437607</v>
+        <v>0.2691995080871878</v>
       </c>
       <c r="E28">
-        <v>0.06425164188478766</v>
+        <v>-0.0675331073578387</v>
       </c>
       <c r="F28">
-        <v>-0.01096250673099474</v>
+        <v>0.03371718135873794</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03198042809705935</v>
+        <v>-0.02709497625793969</v>
       </c>
       <c r="C29">
-        <v>0.02717659721694397</v>
+        <v>0.009138914814178459</v>
       </c>
       <c r="D29">
-        <v>0.02317547233934037</v>
+        <v>-0.0311031866388575</v>
       </c>
       <c r="E29">
-        <v>-0.02936530630256133</v>
+        <v>0.01175960975740346</v>
       </c>
       <c r="F29">
-        <v>-0.0193776918413931</v>
+        <v>-0.009726146115348454</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09657124541962624</v>
+        <v>-0.06431343084515011</v>
       </c>
       <c r="C30">
-        <v>0.07457142039226911</v>
+        <v>0.006255504924531865</v>
       </c>
       <c r="D30">
-        <v>0.03605009068333209</v>
+        <v>-0.08056535335011542</v>
       </c>
       <c r="E30">
-        <v>0.07742269598960878</v>
+        <v>0.02346561728464387</v>
       </c>
       <c r="F30">
-        <v>-0.1840344303479724</v>
+        <v>0.1122719898646647</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03363319740315506</v>
+        <v>-0.04870007039403451</v>
       </c>
       <c r="C31">
-        <v>0.05308444785370695</v>
+        <v>0.01518175803890618</v>
       </c>
       <c r="D31">
-        <v>0.001557003117160935</v>
+        <v>-0.02885792980852246</v>
       </c>
       <c r="E31">
-        <v>-0.02116934517793482</v>
+        <v>0.02739838850972013</v>
       </c>
       <c r="F31">
-        <v>0.007219532785683689</v>
+        <v>-0.00187868679866873</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05467372167620427</v>
+        <v>-0.04840529641561887</v>
       </c>
       <c r="C32">
-        <v>0.02619275341841599</v>
+        <v>0.0004912096716953281</v>
       </c>
       <c r="D32">
-        <v>0.05306821248215183</v>
+        <v>-0.03014419861700013</v>
       </c>
       <c r="E32">
-        <v>0.06452169524970071</v>
+        <v>0.02926257079244654</v>
       </c>
       <c r="F32">
-        <v>0.02428060125709613</v>
+        <v>0.0008151545226142603</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08685520765643875</v>
+        <v>-0.09046417030533989</v>
       </c>
       <c r="C33">
-        <v>0.06112946166876539</v>
+        <v>0.009893549010231324</v>
       </c>
       <c r="D33">
-        <v>0.03536026231281356</v>
+        <v>-0.09219237983213481</v>
       </c>
       <c r="E33">
-        <v>0.003806899361947845</v>
+        <v>0.04595896599757945</v>
       </c>
       <c r="F33">
-        <v>-0.00621202609200962</v>
+        <v>0.04035367940114944</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06808588557747937</v>
+        <v>-0.06903572945632316</v>
       </c>
       <c r="C34">
-        <v>0.05000206891009307</v>
+        <v>0.01286823655177566</v>
       </c>
       <c r="D34">
-        <v>0.04085575839151395</v>
+        <v>-0.09687224576594436</v>
       </c>
       <c r="E34">
-        <v>0.008934234011294938</v>
+        <v>0.03431559456800781</v>
       </c>
       <c r="F34">
-        <v>0.007137207957681148</v>
+        <v>0.04629048776288051</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01036625017690108</v>
+        <v>-0.02410905687812449</v>
       </c>
       <c r="C35">
-        <v>0.01189925735512653</v>
+        <v>0.002664332855147987</v>
       </c>
       <c r="D35">
-        <v>0.001003735614430431</v>
+        <v>-0.01090453713662662</v>
       </c>
       <c r="E35">
-        <v>-0.009594302039037736</v>
+        <v>0.01118300843923238</v>
       </c>
       <c r="F35">
-        <v>-0.006709512230268627</v>
+        <v>0.01122783604233124</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02144996646733298</v>
+        <v>-0.02446511700528169</v>
       </c>
       <c r="C36">
-        <v>0.01481609448361771</v>
+        <v>0.007296924610177519</v>
       </c>
       <c r="D36">
-        <v>-0.01052836448491521</v>
+        <v>-0.03811071021143284</v>
       </c>
       <c r="E36">
-        <v>0.00973751605558313</v>
+        <v>0.01706630950254477</v>
       </c>
       <c r="F36">
-        <v>-0.01627120478927332</v>
+        <v>0.006486361463105801</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01254194530664845</v>
+        <v>-0.001993844536776627</v>
       </c>
       <c r="C38">
-        <v>0.02596372273435717</v>
+        <v>0.0003503386064339934</v>
       </c>
       <c r="D38">
-        <v>-0.02027983183837512</v>
+        <v>-0.002138260897625464</v>
       </c>
       <c r="E38">
-        <v>-0.03391750746150575</v>
+        <v>0.002464452694387735</v>
       </c>
       <c r="F38">
-        <v>-0.06611292658806918</v>
+        <v>-0.001119900374467725</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1096371076500589</v>
+        <v>-0.1101290422304139</v>
       </c>
       <c r="C39">
-        <v>0.09089589546335627</v>
+        <v>0.01842588319458405</v>
       </c>
       <c r="D39">
-        <v>0.1401568964584982</v>
+        <v>-0.1494485300398933</v>
       </c>
       <c r="E39">
-        <v>0.0252428148766395</v>
+        <v>0.0578984483851889</v>
       </c>
       <c r="F39">
-        <v>-0.0925907632695826</v>
+        <v>0.03389291092069999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02501212759741539</v>
+        <v>-0.03746986402367748</v>
       </c>
       <c r="C40">
-        <v>0.06741640213109813</v>
+        <v>0.007644206273682406</v>
       </c>
       <c r="D40">
-        <v>-0.02368647870738918</v>
+        <v>-0.0313968750474984</v>
       </c>
       <c r="E40">
-        <v>-0.0566364520961511</v>
+        <v>0.004595497896753557</v>
       </c>
       <c r="F40">
-        <v>0.01203550062200079</v>
+        <v>-0.01832887789793504</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03160235168027605</v>
+        <v>-0.0265615058864137</v>
       </c>
       <c r="C41">
-        <v>0.02008806537791201</v>
+        <v>0.006920228660014092</v>
       </c>
       <c r="D41">
-        <v>0.02213383362968559</v>
+        <v>-0.01068251883126265</v>
       </c>
       <c r="E41">
-        <v>-0.01455633996039264</v>
+        <v>0.01229231731538097</v>
       </c>
       <c r="F41">
-        <v>-0.01366506713421794</v>
+        <v>-0.0107413778536986</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04297845927689607</v>
+        <v>-0.04199101991467698</v>
       </c>
       <c r="C43">
-        <v>0.02659503616313433</v>
+        <v>0.007018699074577422</v>
       </c>
       <c r="D43">
-        <v>-0.007711395585729012</v>
+        <v>-0.02076575947314303</v>
       </c>
       <c r="E43">
-        <v>-0.00674900081542781</v>
+        <v>0.02580124512612162</v>
       </c>
       <c r="F43">
-        <v>-0.0420765970745192</v>
+        <v>-0.01167268951490775</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1230821633730153</v>
+        <v>-0.07332284317808897</v>
       </c>
       <c r="C44">
-        <v>0.1283218614918834</v>
+        <v>0.02274374534517443</v>
       </c>
       <c r="D44">
-        <v>-0.08152024389563789</v>
+        <v>-0.0991879918817134</v>
       </c>
       <c r="E44">
-        <v>-0.04784005131590539</v>
+        <v>0.06771886855284438</v>
       </c>
       <c r="F44">
-        <v>0.01217201454652517</v>
+        <v>0.1702625856197454</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03297542419508093</v>
+        <v>-0.0225938035620181</v>
       </c>
       <c r="C46">
-        <v>0.01527465728213341</v>
+        <v>0.004215337636667462</v>
       </c>
       <c r="D46">
-        <v>-0.02588528913919234</v>
+        <v>-0.01099760500582414</v>
       </c>
       <c r="E46">
-        <v>-0.03440038044918106</v>
+        <v>0.02311238651419658</v>
       </c>
       <c r="F46">
-        <v>-0.02824197312401613</v>
+        <v>-0.001193652876483023</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03904356435666557</v>
+        <v>-0.05220968184287261</v>
       </c>
       <c r="C47">
-        <v>0.02774988394382383</v>
+        <v>0.003331821537628207</v>
       </c>
       <c r="D47">
-        <v>0.004225339871278395</v>
+        <v>-0.01222974996159296</v>
       </c>
       <c r="E47">
-        <v>-0.01093590673820925</v>
+        <v>0.02157338202510022</v>
       </c>
       <c r="F47">
-        <v>-0.004187636075254112</v>
+        <v>-0.0444981709890225</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04007070626041492</v>
+        <v>-0.0475646440150392</v>
       </c>
       <c r="C48">
-        <v>0.01333334220148851</v>
+        <v>0.003301770118195056</v>
       </c>
       <c r="D48">
-        <v>0.01484339910473204</v>
+        <v>-0.04678732222703442</v>
       </c>
       <c r="E48">
-        <v>-0.01283054817838263</v>
+        <v>-0.00520183128782522</v>
       </c>
       <c r="F48">
-        <v>0.01716663875218557</v>
+        <v>0.01207270407152895</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2201365121310009</v>
+        <v>-0.202570849632656</v>
       </c>
       <c r="C49">
-        <v>-0.001725668170817377</v>
+        <v>0.01711330078076267</v>
       </c>
       <c r="D49">
-        <v>0.04523897948852985</v>
+        <v>0.00997417095364078</v>
       </c>
       <c r="E49">
-        <v>-0.09205619488842594</v>
+        <v>0.0365875184695131</v>
       </c>
       <c r="F49">
-        <v>0.0223056760269225</v>
+        <v>0.03180235449824593</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03909634079536101</v>
+        <v>-0.04839399254183827</v>
       </c>
       <c r="C50">
-        <v>0.02477258831891409</v>
+        <v>0.01125984897528167</v>
       </c>
       <c r="D50">
-        <v>0.01860326994822807</v>
+        <v>-0.02583778176151511</v>
       </c>
       <c r="E50">
-        <v>-0.0007334236536730937</v>
+        <v>0.02832965044568999</v>
       </c>
       <c r="F50">
-        <v>-0.03399928897243092</v>
+        <v>0.009366113740138805</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02106977364630007</v>
+        <v>-0.003028480580281752</v>
       </c>
       <c r="C51">
-        <v>-0.01096230670218434</v>
+        <v>0.0007602619014173388</v>
       </c>
       <c r="D51">
-        <v>-0.002166539923945577</v>
+        <v>0.002158350003873751</v>
       </c>
       <c r="E51">
-        <v>-0.01669417166436747</v>
+        <v>0.0005795922556412268</v>
       </c>
       <c r="F51">
-        <v>0.02577916761530217</v>
+        <v>0.005685514957555904</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.07911241917605248</v>
+        <v>-0.1446047993727351</v>
       </c>
       <c r="C52">
-        <v>0.06431483373361455</v>
+        <v>0.0133054917540354</v>
       </c>
       <c r="D52">
-        <v>0.01656304645980182</v>
+        <v>-0.05025677192717029</v>
       </c>
       <c r="E52">
-        <v>-0.00702755790943044</v>
+        <v>0.02080035495383862</v>
       </c>
       <c r="F52">
-        <v>-0.05581034468985422</v>
+        <v>0.03588563458594596</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1574973255605855</v>
+        <v>-0.1737209948838322</v>
       </c>
       <c r="C53">
-        <v>0.05056602712189637</v>
+        <v>0.01605598361558128</v>
       </c>
       <c r="D53">
-        <v>-0.01448487883995774</v>
+        <v>-0.01346326120807466</v>
       </c>
       <c r="E53">
-        <v>-0.04329721559859182</v>
+        <v>0.03614664839537164</v>
       </c>
       <c r="F53">
-        <v>-0.07749815835885186</v>
+        <v>0.06717907253505188</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05747236104821311</v>
+        <v>-0.02259745499675138</v>
       </c>
       <c r="C54">
-        <v>0.06429875073412035</v>
+        <v>0.01272154693562151</v>
       </c>
       <c r="D54">
-        <v>0.0006105548798235786</v>
+        <v>-0.03383853565628998</v>
       </c>
       <c r="E54">
-        <v>-0.01252474502879327</v>
+        <v>0.0152474858054909</v>
       </c>
       <c r="F54">
-        <v>0.02694269482406578</v>
+        <v>-0.003522923128597814</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08695638606873969</v>
+        <v>-0.1147543941306197</v>
       </c>
       <c r="C55">
-        <v>0.04875664152130021</v>
+        <v>0.01472482578914497</v>
       </c>
       <c r="D55">
-        <v>0.03204192225060138</v>
+        <v>-0.01251057021560236</v>
       </c>
       <c r="E55">
-        <v>-0.02168677657106571</v>
+        <v>0.03039297664810694</v>
       </c>
       <c r="F55">
-        <v>-0.0218015753980649</v>
+        <v>0.05009464048657944</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1500669610626231</v>
+        <v>-0.1777628864333811</v>
       </c>
       <c r="C56">
-        <v>0.08018844886173915</v>
+        <v>0.01351657432876787</v>
       </c>
       <c r="D56">
-        <v>0.0257358786642251</v>
+        <v>-0.008097566057175123</v>
       </c>
       <c r="E56">
-        <v>-0.07722553137359872</v>
+        <v>0.04031541180019766</v>
       </c>
       <c r="F56">
-        <v>-0.05184750093256109</v>
+        <v>0.04004689735741716</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05802205387609676</v>
+        <v>-0.0468283338127839</v>
       </c>
       <c r="C58">
-        <v>0.04360328248551588</v>
+        <v>0.002883139563166055</v>
       </c>
       <c r="D58">
-        <v>-0.04130258838156127</v>
+        <v>-0.06382938789969501</v>
       </c>
       <c r="E58">
-        <v>-0.03296566148153504</v>
+        <v>0.02203450802459882</v>
       </c>
       <c r="F58">
-        <v>-0.02693945538496356</v>
+        <v>-0.04970872144024729</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2107722144098537</v>
+        <v>-0.1710090571016251</v>
       </c>
       <c r="C59">
-        <v>-0.2253564161987546</v>
+        <v>0.01531430215557619</v>
       </c>
       <c r="D59">
-        <v>0.0449071904585513</v>
+        <v>0.2274853197216643</v>
       </c>
       <c r="E59">
-        <v>0.01499915538845464</v>
+        <v>-0.0484642263291546</v>
       </c>
       <c r="F59">
-        <v>0.090184977862746</v>
+        <v>-0.03183401353794649</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2228997730167561</v>
+        <v>-0.2376114693436282</v>
       </c>
       <c r="C60">
-        <v>0.1009945457739383</v>
+        <v>-0.004054275230957411</v>
       </c>
       <c r="D60">
-        <v>0.08381741582048642</v>
+        <v>-0.04901084508596031</v>
       </c>
       <c r="E60">
-        <v>-0.1278314919060104</v>
+        <v>0.007883529293123723</v>
       </c>
       <c r="F60">
-        <v>-0.01578063162452931</v>
+        <v>-0.03257876153878467</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1052656731196678</v>
+        <v>-0.08489413053362958</v>
       </c>
       <c r="C61">
-        <v>0.06003218368159433</v>
+        <v>0.01437577091302103</v>
       </c>
       <c r="D61">
-        <v>0.08578680910084181</v>
+        <v>-0.1103182987116465</v>
       </c>
       <c r="E61">
-        <v>-0.01250490443211193</v>
+        <v>0.03988538033791553</v>
       </c>
       <c r="F61">
-        <v>-0.04809617615427595</v>
+        <v>0.01845715826561491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1466861174247051</v>
+        <v>-0.1704394853906994</v>
       </c>
       <c r="C62">
-        <v>0.06138745085254319</v>
+        <v>0.01753072060930883</v>
       </c>
       <c r="D62">
-        <v>-0.001322171087101012</v>
+        <v>-0.01151825190570522</v>
       </c>
       <c r="E62">
-        <v>-0.05837700463819293</v>
+        <v>0.03750027626421201</v>
       </c>
       <c r="F62">
-        <v>-0.04773794087321648</v>
+        <v>0.02106869124992097</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04544839748077891</v>
+        <v>-0.04287074555408583</v>
       </c>
       <c r="C63">
-        <v>0.02471307185233824</v>
+        <v>0.004003477700474831</v>
       </c>
       <c r="D63">
-        <v>0.009614585316250592</v>
+        <v>-0.04836088755005407</v>
       </c>
       <c r="E63">
-        <v>0.02877021728185005</v>
+        <v>0.0199277322477262</v>
       </c>
       <c r="F63">
-        <v>-0.005392946059075468</v>
+        <v>0.009923014700842177</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09225727389345659</v>
+        <v>-0.1126900306336289</v>
       </c>
       <c r="C64">
-        <v>0.04869260590076836</v>
+        <v>0.01212062164244908</v>
       </c>
       <c r="D64">
-        <v>0.008820780633282257</v>
+        <v>-0.0410974157047351</v>
       </c>
       <c r="E64">
-        <v>-0.06447397358233636</v>
+        <v>0.0202416414105405</v>
       </c>
       <c r="F64">
-        <v>-0.06109897473237804</v>
+        <v>0.02230452245251865</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1242722846336296</v>
+        <v>-0.1443536942378806</v>
       </c>
       <c r="C65">
-        <v>0.05651122854567931</v>
+        <v>0.03129890837069213</v>
       </c>
       <c r="D65">
-        <v>0.01823966734162754</v>
+        <v>0.04438040997982758</v>
       </c>
       <c r="E65">
-        <v>0.04522242055422089</v>
+        <v>0.0008262522035769129</v>
       </c>
       <c r="F65">
-        <v>-0.05132389365851206</v>
+        <v>0.04207711691283181</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1263388380439077</v>
+        <v>-0.131619460180766</v>
       </c>
       <c r="C66">
-        <v>0.1126306258361105</v>
+        <v>0.01596731149671569</v>
       </c>
       <c r="D66">
-        <v>0.1293397509425173</v>
+        <v>-0.136807807930388</v>
       </c>
       <c r="E66">
-        <v>0.001510074217179226</v>
+        <v>0.06431935737070679</v>
       </c>
       <c r="F66">
-        <v>-0.1285485137754282</v>
+        <v>0.03942363125213891</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05636502685727236</v>
+        <v>-0.06312120923172672</v>
       </c>
       <c r="C67">
-        <v>0.02538824457159907</v>
+        <v>0.003585544554433749</v>
       </c>
       <c r="D67">
-        <v>-0.02973920151508284</v>
+        <v>-0.05459374727933163</v>
       </c>
       <c r="E67">
-        <v>-0.009401268761677904</v>
+        <v>0.01997416736449395</v>
       </c>
       <c r="F67">
-        <v>-0.05186420766213833</v>
+        <v>-0.04116388153224088</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1266243103453441</v>
+        <v>-0.1145308040129614</v>
       </c>
       <c r="C68">
-        <v>-0.2492943472536859</v>
+        <v>0.02463128110899972</v>
       </c>
       <c r="D68">
-        <v>0.01240386471101742</v>
+        <v>0.266269579864065</v>
       </c>
       <c r="E68">
-        <v>0.06544002612418653</v>
+        <v>-0.08534913216767193</v>
       </c>
       <c r="F68">
-        <v>-0.001568990120981176</v>
+        <v>0.0387945370689974</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04015908970918717</v>
+        <v>-0.03962219255024657</v>
       </c>
       <c r="C69">
-        <v>-0.005640851096623646</v>
+        <v>0.001150439072130645</v>
       </c>
       <c r="D69">
-        <v>-0.0006223118710828412</v>
+        <v>-0.009146163716820071</v>
       </c>
       <c r="E69">
-        <v>-0.00823602402357281</v>
+        <v>0.0240311993239306</v>
       </c>
       <c r="F69">
-        <v>-0.03870947028710334</v>
+        <v>-0.01283586512364468</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03610194884393113</v>
+        <v>-0.06384739937904493</v>
       </c>
       <c r="C70">
-        <v>0.01013008455321138</v>
+        <v>-0.02760070202051998</v>
       </c>
       <c r="D70">
-        <v>0.04013218594613701</v>
+        <v>-0.02630066868368086</v>
       </c>
       <c r="E70">
-        <v>-0.01631750936631754</v>
+        <v>-0.04845414877748834</v>
       </c>
       <c r="F70">
-        <v>-0.0612316064518381</v>
+        <v>-0.2938310380071898</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1458139729693979</v>
+        <v>-0.1332160336280275</v>
       </c>
       <c r="C71">
-        <v>-0.2701696758461547</v>
+        <v>0.02885477101565919</v>
       </c>
       <c r="D71">
-        <v>0.003670397930634691</v>
+        <v>0.2821895608747041</v>
       </c>
       <c r="E71">
-        <v>0.03222061059164335</v>
+        <v>-0.09363672377091554</v>
       </c>
       <c r="F71">
-        <v>-0.04918688281589026</v>
+        <v>0.04211073736689487</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1422084640303742</v>
+        <v>-0.1389229115731561</v>
       </c>
       <c r="C72">
-        <v>0.02355358866424747</v>
+        <v>0.02438743938138572</v>
       </c>
       <c r="D72">
-        <v>0.002887774407297144</v>
+        <v>-0.00449034692315393</v>
       </c>
       <c r="E72">
-        <v>-0.01033741920572989</v>
+        <v>0.04367032400987191</v>
       </c>
       <c r="F72">
-        <v>-0.04490624598472419</v>
+        <v>0.02270448333846033</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2135070024498337</v>
+        <v>-0.205184169473092</v>
       </c>
       <c r="C73">
-        <v>0.03839811822584455</v>
+        <v>0.01152888011642001</v>
       </c>
       <c r="D73">
-        <v>0.1249009383417257</v>
+        <v>-0.01649895192884652</v>
       </c>
       <c r="E73">
-        <v>-0.1590563496663656</v>
+        <v>0.06318054485364337</v>
       </c>
       <c r="F73">
-        <v>-0.06178194495650129</v>
+        <v>0.03165610612181839</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1132946685185121</v>
+        <v>-0.09433937925422034</v>
       </c>
       <c r="C74">
-        <v>0.09412050631983122</v>
+        <v>0.01206507253197138</v>
       </c>
       <c r="D74">
-        <v>0.008004238340541682</v>
+        <v>-0.02355196041105022</v>
       </c>
       <c r="E74">
-        <v>-0.02533510314703489</v>
+        <v>0.04935561191892141</v>
       </c>
       <c r="F74">
-        <v>-0.08550798600658606</v>
+        <v>0.04269129846429375</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1018556649435281</v>
+        <v>-0.1300937420261663</v>
       </c>
       <c r="C75">
-        <v>0.06387345173157856</v>
+        <v>0.02628071904616636</v>
       </c>
       <c r="D75">
-        <v>0.007300496910693955</v>
+        <v>-0.03359066724536385</v>
       </c>
       <c r="E75">
-        <v>-0.01907674432494482</v>
+        <v>0.0600190647621066</v>
       </c>
       <c r="F75">
-        <v>0.01353821174013862</v>
+        <v>0.01294349698646345</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.03585521843413055</v>
+        <v>-0.005177111818674157</v>
       </c>
       <c r="C76">
-        <v>0.005172323647884913</v>
+        <v>0.001207664667323091</v>
       </c>
       <c r="D76">
-        <v>0.008186510790097053</v>
+        <v>0.0009661847680198224</v>
       </c>
       <c r="E76">
-        <v>-0.03190979456540183</v>
+        <v>0.003067716608516944</v>
       </c>
       <c r="F76">
-        <v>0.005492703209508242</v>
+        <v>0.00445477848668736</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06904473257107677</v>
+        <v>-0.07911504912680038</v>
       </c>
       <c r="C77">
-        <v>0.03854344253957786</v>
+        <v>0.01058462403522006</v>
       </c>
       <c r="D77">
-        <v>0.03104739775008961</v>
+        <v>-0.1099758120118447</v>
       </c>
       <c r="E77">
-        <v>-0.0361456556796886</v>
+        <v>0.03611775860447591</v>
       </c>
       <c r="F77">
-        <v>0.01786793442381797</v>
+        <v>0.03153804270896069</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1377485631247143</v>
+        <v>-0.1066043135972113</v>
       </c>
       <c r="C78">
-        <v>0.1302245126850981</v>
+        <v>0.04224134789157102</v>
       </c>
       <c r="D78">
-        <v>-0.1747963885075519</v>
+        <v>-0.1193319108334108</v>
       </c>
       <c r="E78">
-        <v>0.07554576726470147</v>
+        <v>0.085796015279285</v>
       </c>
       <c r="F78">
-        <v>0.8225432177898901</v>
+        <v>0.07617378024054487</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1345855260119637</v>
+        <v>-0.1645513322776771</v>
       </c>
       <c r="C79">
-        <v>0.06985763436158891</v>
+        <v>0.02025692351834123</v>
       </c>
       <c r="D79">
-        <v>-0.005908435993142279</v>
+        <v>-0.0194221227479604</v>
       </c>
       <c r="E79">
-        <v>-0.05352220963368524</v>
+        <v>0.04839020833527514</v>
       </c>
       <c r="F79">
-        <v>-0.04331901634884004</v>
+        <v>0.007844165881694875</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06848047426871524</v>
+        <v>-0.07999135259154035</v>
       </c>
       <c r="C80">
-        <v>0.04770868753243475</v>
+        <v>-0.0004292540851723354</v>
       </c>
       <c r="D80">
-        <v>0.0805983316463021</v>
+        <v>-0.05722889199765385</v>
       </c>
       <c r="E80">
-        <v>0.005936776229912713</v>
+        <v>0.0331047339974201</v>
       </c>
       <c r="F80">
-        <v>-0.04040879723739422</v>
+        <v>-0.01699229010765495</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1348493574560148</v>
+        <v>-0.1235815757453634</v>
       </c>
       <c r="C81">
-        <v>0.08738692348177272</v>
+        <v>0.03037746431928632</v>
       </c>
       <c r="D81">
-        <v>0.0001808842612861703</v>
+        <v>-0.01892711686179634</v>
       </c>
       <c r="E81">
-        <v>-0.04483600974890179</v>
+        <v>0.05954143003138975</v>
       </c>
       <c r="F81">
-        <v>-0.01174573206608782</v>
+        <v>0.004052914718380498</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1421502646089348</v>
+        <v>-0.1638014647113027</v>
       </c>
       <c r="C82">
-        <v>0.05639959868130498</v>
+        <v>0.02099231028908895</v>
       </c>
       <c r="D82">
-        <v>0.0139585278573406</v>
+        <v>-0.01617749660419925</v>
       </c>
       <c r="E82">
-        <v>-0.03191160464018558</v>
+        <v>0.03416971665054581</v>
       </c>
       <c r="F82">
-        <v>-0.06723936495849979</v>
+        <v>0.06070153879652576</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.09158478231587859</v>
+        <v>-0.06417640355120612</v>
       </c>
       <c r="C83">
-        <v>0.1535824311896558</v>
+        <v>0.00376106508496803</v>
       </c>
       <c r="D83">
-        <v>0.01363991083572492</v>
+        <v>-0.04907924820700731</v>
       </c>
       <c r="E83">
-        <v>-0.0009090689129535224</v>
+        <v>0.004977617503330537</v>
       </c>
       <c r="F83">
-        <v>-0.01840436505174997</v>
+        <v>-0.04178334270171622</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05052454635154656</v>
+        <v>-0.05971104949657997</v>
       </c>
       <c r="C84">
-        <v>-0.1092782397791876</v>
+        <v>0.01144499880788449</v>
       </c>
       <c r="D84">
-        <v>0.04742744659730383</v>
+        <v>-0.06098764233164298</v>
       </c>
       <c r="E84">
-        <v>0.005232651686120669</v>
+        <v>-0.0008294493785836886</v>
       </c>
       <c r="F84">
-        <v>0.1773643239595808</v>
+        <v>0.01247296211727518</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1203307493294415</v>
+        <v>-0.1386140075375026</v>
       </c>
       <c r="C85">
-        <v>0.04865254384618343</v>
+        <v>0.02575027397532749</v>
       </c>
       <c r="D85">
-        <v>0.007944398076156628</v>
+        <v>-0.01468050404066938</v>
       </c>
       <c r="E85">
-        <v>-0.06563056616703222</v>
+        <v>0.0405764000007128</v>
       </c>
       <c r="F85">
-        <v>-0.04061050729566085</v>
+        <v>0.04478454929267613</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09009326613610487</v>
+        <v>-0.0980069350950114</v>
       </c>
       <c r="C86">
-        <v>0.01438849610500702</v>
+        <v>-0.007001960979250987</v>
       </c>
       <c r="D86">
-        <v>-0.005631066981860571</v>
+        <v>-0.02185222763941298</v>
       </c>
       <c r="E86">
-        <v>-0.167540597865853</v>
+        <v>0.1430182131055477</v>
       </c>
       <c r="F86">
-        <v>0.2761728710168593</v>
+        <v>-0.8587449204188745</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1240008843582623</v>
+        <v>-0.09905378883012542</v>
       </c>
       <c r="C87">
-        <v>0.1352844279618575</v>
+        <v>0.02516269305926035</v>
       </c>
       <c r="D87">
-        <v>-0.004529351265380861</v>
+        <v>-0.07780324916619227</v>
       </c>
       <c r="E87">
-        <v>-0.07518660629110076</v>
+        <v>-0.05086097102521582</v>
       </c>
       <c r="F87">
-        <v>0.03057724195632586</v>
+        <v>0.07701686917729206</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05120811326912224</v>
+        <v>-0.0621209915930788</v>
       </c>
       <c r="C88">
-        <v>0.05056454908435237</v>
+        <v>0.003254186721931126</v>
       </c>
       <c r="D88">
-        <v>0.04447031244670837</v>
+        <v>-0.05355695712314481</v>
       </c>
       <c r="E88">
-        <v>-0.02662026352346446</v>
+        <v>0.027536758770442</v>
       </c>
       <c r="F88">
-        <v>-0.04885242065323658</v>
+        <v>0.008968163557052695</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2042748912791358</v>
+        <v>-0.1338700032417751</v>
       </c>
       <c r="C89">
-        <v>-0.3696688948917117</v>
+        <v>0.007095904191593515</v>
       </c>
       <c r="D89">
-        <v>-0.05497266177704119</v>
+        <v>0.2627154518468008</v>
       </c>
       <c r="E89">
-        <v>0.02527302522809419</v>
+        <v>-0.09163220045160131</v>
       </c>
       <c r="F89">
-        <v>0.01850630507616656</v>
+        <v>0.02410126330729786</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1585427821450563</v>
+        <v>-0.14463326804171</v>
       </c>
       <c r="C90">
-        <v>-0.259203717507746</v>
+        <v>0.0243676223036717</v>
       </c>
       <c r="D90">
-        <v>0.00247060040370671</v>
+        <v>0.2699846702559428</v>
       </c>
       <c r="E90">
-        <v>0.01965008666389535</v>
+        <v>-0.1068211046730035</v>
       </c>
       <c r="F90">
-        <v>-0.03903420170243656</v>
+        <v>0.02551382553261797</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07894267010048438</v>
+        <v>-0.1186170831551597</v>
       </c>
       <c r="C91">
-        <v>0.05069836556977864</v>
+        <v>0.01652534282057342</v>
       </c>
       <c r="D91">
-        <v>0.01001456528726098</v>
+        <v>0.006230176633201663</v>
       </c>
       <c r="E91">
-        <v>-0.04817483070750014</v>
+        <v>0.05716887182081222</v>
       </c>
       <c r="F91">
-        <v>-0.01383850857554012</v>
+        <v>-0.01960983682563151</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1769269902606746</v>
+        <v>-0.1482274403516841</v>
       </c>
       <c r="C92">
-        <v>-0.3064551174111318</v>
+        <v>0.01616973293428231</v>
       </c>
       <c r="D92">
-        <v>-0.03543283765217838</v>
+        <v>0.3013382839645945</v>
       </c>
       <c r="E92">
-        <v>0.04120434166192646</v>
+        <v>-0.1021943488385199</v>
       </c>
       <c r="F92">
-        <v>0.0100164384332354</v>
+        <v>0.0218400995511349</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1609174431084724</v>
+        <v>-0.1488713986780353</v>
       </c>
       <c r="C93">
-        <v>-0.3169282703851057</v>
+        <v>0.02087264177501346</v>
       </c>
       <c r="D93">
-        <v>0.0387511645058114</v>
+        <v>0.2722965859579747</v>
       </c>
       <c r="E93">
-        <v>0.02627420761490685</v>
+        <v>-0.07283336029354759</v>
       </c>
       <c r="F93">
-        <v>-0.02704097764105778</v>
+        <v>0.01907285392340945</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1326858968285097</v>
+        <v>-0.1337004635951087</v>
       </c>
       <c r="C94">
-        <v>0.07383881458236427</v>
+        <v>0.0238021157603007</v>
       </c>
       <c r="D94">
-        <v>-0.005794252076641911</v>
+        <v>-0.04650847226654157</v>
       </c>
       <c r="E94">
-        <v>-0.03643314489673927</v>
+        <v>0.06135205230212826</v>
       </c>
       <c r="F94">
-        <v>-0.02063444953823755</v>
+        <v>0.0318694190570089</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1146820580782465</v>
+        <v>-0.1256981153084381</v>
       </c>
       <c r="C95">
-        <v>0.04973405044035162</v>
+        <v>0.00570579461334436</v>
       </c>
       <c r="D95">
-        <v>-0.0130414567284516</v>
+        <v>-0.09141601755815537</v>
       </c>
       <c r="E95">
-        <v>-0.02969143192359916</v>
+        <v>0.04419881233717961</v>
       </c>
       <c r="F95">
-        <v>0.09021234422005794</v>
+        <v>-0.01111991421518796</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.006425173360689609</v>
+        <v>-0.09797163002987161</v>
       </c>
       <c r="C96">
-        <v>0.008713816109841514</v>
+        <v>-0.9890181218203621</v>
       </c>
       <c r="D96">
-        <v>0.0004704927540668523</v>
+        <v>0.02452713925730927</v>
       </c>
       <c r="E96">
-        <v>-0.001783099996482287</v>
+        <v>0.05888374415505455</v>
       </c>
       <c r="F96">
-        <v>0.02309447344169689</v>
+        <v>0.04817475476268728</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1711954206713768</v>
+        <v>-0.1866703353181247</v>
       </c>
       <c r="C97">
-        <v>0.170276989392338</v>
+        <v>-0.01173733330818032</v>
       </c>
       <c r="D97">
-        <v>-0.09577561889149774</v>
+        <v>0.007845915112392883</v>
       </c>
       <c r="E97">
-        <v>0.8913079647907085</v>
+        <v>0.01585747245520362</v>
       </c>
       <c r="F97">
-        <v>-0.0591281520724601</v>
+        <v>-0.1732114943030462</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2334720921844863</v>
+        <v>-0.2045017251221851</v>
       </c>
       <c r="C98">
-        <v>0.06477090845504112</v>
+        <v>0.006836970129114516</v>
       </c>
       <c r="D98">
-        <v>-0.07700857386712105</v>
+        <v>-0.01365717107921584</v>
       </c>
       <c r="E98">
-        <v>-0.02463183925159897</v>
+        <v>-0.09367063580329782</v>
       </c>
       <c r="F98">
-        <v>0.06843390715596342</v>
+        <v>-0.124844458992169</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05600555571014205</v>
+        <v>-0.05704298527415728</v>
       </c>
       <c r="C99">
-        <v>0.01949924001252439</v>
+        <v>-0.003440408008287247</v>
       </c>
       <c r="D99">
-        <v>-0.003700943963690501</v>
+        <v>-0.03512891422459745</v>
       </c>
       <c r="E99">
-        <v>-0.02233610876929299</v>
+        <v>0.02651348602395614</v>
       </c>
       <c r="F99">
-        <v>-0.002622907980107475</v>
+        <v>0.003254746934295755</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.001845725669876069</v>
+        <v>-0.1242133572442823</v>
       </c>
       <c r="C100">
-        <v>0.004731287477180187</v>
+        <v>-0.0490689555259104</v>
       </c>
       <c r="D100">
-        <v>0.0005762966832024677</v>
+        <v>-0.3380481577215245</v>
       </c>
       <c r="E100">
-        <v>0.1273992700330482</v>
+        <v>-0.8997599518379141</v>
       </c>
       <c r="F100">
-        <v>-0.03493781765805048</v>
+        <v>-0.064634509700467</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03154893878323427</v>
+        <v>-0.02702869422206934</v>
       </c>
       <c r="C101">
-        <v>0.02767193089790864</v>
+        <v>0.009140932180466138</v>
       </c>
       <c r="D101">
-        <v>0.02424513536039286</v>
+        <v>-0.03083999913008232</v>
       </c>
       <c r="E101">
-        <v>-0.02953395184347812</v>
+        <v>0.01129770343571327</v>
       </c>
       <c r="F101">
-        <v>-0.01742848356549333</v>
+        <v>-0.01170634992472668</v>
       </c>
     </row>
     <row r="102" spans="1:6">
